--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.7 Plantilla_Lamparas_de_alumbrado_publico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.7 Plantilla_Lamparas_de_alumbrado_publico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A17776-B7CF-4A93-8269-83537B6A95B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275705F2-5F97-40F9-B028-961CF3296E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{048E799F-1FF6-4BDA-9D71-D92380C958E8}"/>
   </bookViews>
@@ -44,9 +44,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>Potencia base (W)</t>
   </si>
   <si>
     <t>Cantidad</t>
@@ -94,13 +91,7 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Potencia Iniciativa (W)</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>Tipo L.BAU</t>
   </si>
   <si>
     <t>TipoBAU</t>
@@ -121,28 +112,37 @@
     <t>LED</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo </t>
-  </si>
-  <si>
     <t>Potencia de lámpara BAU. Inserte su dato.</t>
   </si>
   <si>
     <t>Tipo de lámpara BAU. Seleccione el desplegable.</t>
   </si>
   <si>
-    <t>Tipo de lámpara Iniciativa. Seleccione el desplegable.</t>
-  </si>
-  <si>
-    <t>Numero de unidades de este tipo o clase (Potencia iniciativa).  Inserte su dato.</t>
-  </si>
-  <si>
-    <t>Potencia de lámpara Iniciativa. Inserte su dato.</t>
-  </si>
-  <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
     <t>Año en que se compraron las lámparas. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Potencia de lámpara acción. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara acción. Seleccione el desplegable.</t>
+  </si>
+  <si>
+    <t>Numero de unidades de este tipo o clase (Potencia acción).  Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Potencia Acción (W)</t>
+  </si>
+  <si>
+    <t>Potencia Base (W)</t>
+  </si>
+  <si>
+    <t>Tipo de Lámpara BAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Lámpara Acción </t>
   </si>
 </sst>
 </file>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -318,10 +318,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,7 +642,7 @@
   <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,10 +650,10 @@
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
     <col min="8" max="8" width="34.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
@@ -660,87 +663,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B4" s="18">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C4" s="19">
         <f t="shared" ref="C4:C67" si="0">VLOOKUP(D4,Tabla_TIBAU,2,)</f>
         <v>1</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="18">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F4" s="19">
         <f t="shared" ref="F4:F67" si="1">VLOOKUP(G4,Tabla_TIPOINI,2,)</f>
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4" s="18">
-        <v>110000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5672,7 +5675,7 @@
       <c r="H312" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JamEFCDoUHkEsrBY6t8PMJp3x6pTGylNwMQsF5dpSp13596TANviND5D+z7pv0biiPfp32++ti3x+LSYoeeQYQ==" saltValue="aw5qh1Fq8yHfYqI7CSBlMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8kk7FsefxBoM6tig/0zdZKQa2Kx6O5NBYgDS56hnIgQ1iUp8MDILN8HvjSbLpVYXDKmvp9mJrFY9AEgqYKx/lw==" saltValue="iIpBdcB/7yutcmAjXA/OKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
@@ -5721,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5732,22 +5735,22 @@
         <v>2010</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5755,19 +5758,19 @@
         <v>2011</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -5778,7 +5781,7 @@
         <v>2012</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -5789,7 +5792,7 @@
         <v>2013</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -5800,7 +5803,7 @@
         <v>2014</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -5811,7 +5814,7 @@
         <v>2015</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -5822,7 +5825,7 @@
         <v>2016</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -5833,7 +5836,7 @@
         <v>2017</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -5844,7 +5847,7 @@
         <v>2018</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -5855,7 +5858,7 @@
         <v>2019</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -5866,7 +5869,7 @@
         <v>2020</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
@@ -5877,7 +5880,7 @@
         <v>2021</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
